--- a/debt/csv/example.xlsx
+++ b/debt/csv/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gov-data\city_debt\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gov-data\debt\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>政府別</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -174,10 +174,6 @@
   </si>
   <si>
     <t>縣市總計</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1107,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1155,57 +1151,41 @@
       </c>
       <c r="B2">
         <f>SUM(B3,B4)</f>
-        <v>3878450</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.35730000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2">
         <f>SUM(D3,D4)</f>
-        <v>356058</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2">
         <f>SUM(B2,D2)</f>
-        <v>4234508</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>SUM(G3,G4)</f>
-        <v>618896</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>SUM(H3,H4)</f>
-        <v>139003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>3362141</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.30969999999999998</v>
-      </c>
-      <c r="D3" s="1">
-        <v>240100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.1401</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
       <c r="F3">
         <f t="shared" ref="F3:F32" si="0">SUM(B3,D3)</f>
-        <v>3602241</v>
-      </c>
-      <c r="G3" s="1">
-        <v>505881</v>
-      </c>
-      <c r="H3" s="1">
-        <v>113555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1213,29 +1193,25 @@
       </c>
       <c r="B4">
         <f>SUM(B5,B8,B32)</f>
-        <v>516309</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.7600000000000003E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4">
         <f>SUM(D5,D8,D32)</f>
-        <v>115958</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>632267</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f>SUM(G5,G8,G32)</f>
-        <v>113015</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f>SUM(H5,H8,H32)</f>
-        <v>25448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1244,84 +1220,56 @@
       </c>
       <c r="B5">
         <f>SUM(B6:B7)</f>
-        <v>305451</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5">
         <f>SUM(D6:D7)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>305451</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f>SUM(G6:G7)</f>
-        <v>59022</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f>SUM(H6:H7)</f>
-        <v>24700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
-        <v>197624</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>197624</v>
-      </c>
-      <c r="G6" s="1">
-        <v>33472</v>
-      </c>
-      <c r="H6" s="1">
-        <v>24700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>107827</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>107827</v>
-      </c>
-      <c r="G7" s="1">
-        <v>25550</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1329,678 +1277,386 @@
       </c>
       <c r="B8">
         <f>SUM(B9:B31)</f>
-        <v>201388</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.8599999999999998E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8">
         <f>SUM(D9:D31)</f>
-        <v>115673</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.2006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>317061</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>SUM(G9:G31)</f>
-        <v>52583</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f>SUM(H9:H31)</f>
-        <v>704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>41759</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.39739999999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>22083</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.251</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>63842</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5910</v>
-      </c>
-      <c r="H9" s="1">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
-        <v>16800</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.315</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9141</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.19189999999999999</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>25941</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3467</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
-        <v>7704</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.36830000000000002</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5478</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.29430000000000001</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>13182</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6822</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
-        <v>8862</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.38440000000000002</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5681</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.28310000000000002</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>14543</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5483</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
-        <v>7942</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.28989999999999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5749</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.2944</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>13691</v>
-      </c>
-      <c r="G13" s="1">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
-        <v>11730</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.18509999999999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8450</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.19850000000000001</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>20180</v>
-      </c>
-      <c r="G14" s="1">
-        <v>7773</v>
-      </c>
-      <c r="H14" s="1">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
-        <v>10193</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.27389999999999998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>749</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.3800000000000002E-2</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>10942</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1741</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1">
-        <v>8575</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="D16" s="1">
-        <v>646</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3.04E-2</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>9221</v>
-      </c>
-      <c r="G16" s="1">
-        <v>387</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1">
-        <v>10722</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.30609999999999998</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7571</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.3044</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>18293</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2643</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1">
-        <v>9359</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.33939999999999998</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5176</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.28639999999999999</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>14535</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2815</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1">
-        <v>12862</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.3301</v>
-      </c>
-      <c r="D19" s="1">
-        <v>13087</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.40039999999999998</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>25949</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3396</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1">
-        <v>7870</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8500</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.24529999999999999</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>16370</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1">
-        <v>12612</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4191</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.15260000000000001</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>16803</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.1051</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1013</v>
-      </c>
-      <c r="E22" s="2">
-        <v>8.3199999999999996E-2</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>2613</v>
-      </c>
-      <c r="G22" s="1">
-        <v>539</v>
-      </c>
-      <c r="H22" s="1">
-        <v>336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1">
-        <v>4250</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.23150000000000001</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2415</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.15640000000000001</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>6665</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>656</v>
-      </c>
-      <c r="E24" s="2">
-        <v>7.9100000000000004E-2</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1">
-        <v>4136</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.20530000000000001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>4136</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="1">
-        <v>5419</v>
-      </c>
-      <c r="C26" s="2">
-        <v>253.23</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2957</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.16950000000000001</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>8376</v>
-      </c>
-      <c r="G26" s="1">
-        <v>759</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1">
-        <v>6105</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.16089999999999999</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3091</v>
-      </c>
-      <c r="E27" s="2">
-        <v>9.2200000000000004E-2</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>9196</v>
-      </c>
-      <c r="G27" s="1">
-        <v>6278</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="1">
-        <v>1460</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.14169999999999999</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>2960</v>
-      </c>
-      <c r="G28" s="1">
-        <v>450</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1">
-        <v>11424</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D29" s="1">
-        <v>7539</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.34860000000000002</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>18963</v>
-      </c>
-      <c r="G29" s="1">
-        <v>3655</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>450</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1">
-        <v>9470</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="D32" s="1">
-        <v>285</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.9E-3</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>9755</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1410</v>
-      </c>
-      <c r="H32" s="1">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
